--- a/public/temp/users.xlsx
+++ b/public/temp/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,30 +424,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AgyemangBernice</v>
+        <v>DavidAbbey</v>
       </c>
       <c r="B2" t="str">
-        <v>0507343604</v>
+        <v>0244090908</v>
       </c>
       <c r="C2" t="str">
-        <v>b@gmail.com</v>
+        <v>dav@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>Regional</v>
+        <v>District</v>
       </c>
       <c r="E2" t="str">
         <v>Greater Accra Region</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Tema Metropolitan</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DonKoe</v>
+        <v>DrNyavi</v>
       </c>
       <c r="B3" t="str">
-        <v>0547777777</v>
+        <v>0244843402</v>
       </c>
       <c r="C3" t="str">
-        <v>dk@gmail.com</v>
+        <v>nd@gmail.com</v>
       </c>
       <c r="D3" t="str">
         <v>District</v>
@@ -456,18 +459,18 @@
         <v>Greater Accra Region</v>
       </c>
       <c r="F3" t="str">
-        <v>Ablekuma North</v>
+        <v>Ablekuma Central</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>John1Doe1</v>
+        <v xml:space="preserve">OpokuRichard </v>
       </c>
       <c r="B4" t="str">
-        <v>0546666666</v>
+        <v>0554136656</v>
       </c>
       <c r="C4" t="str">
-        <v>jd@gmail.com</v>
+        <v>rich@gmail.com</v>
       </c>
       <c r="D4" t="str">
         <v>District</v>
@@ -476,40 +479,160 @@
         <v>Greater Accra Region</v>
       </c>
       <c r="F4" t="str">
-        <v>Ablekuma Central</v>
+        <v>Ga North</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>EbenezerOppong</v>
+        <v>EuniceDago</v>
       </c>
       <c r="B5" t="str">
-        <v>0242260004</v>
+        <v>0242677442</v>
       </c>
       <c r="C5" t="str">
-        <v>oe@gmail.com</v>
+        <v>ed@gmail.com</v>
       </c>
       <c r="D5" t="str">
-        <v>National</v>
+        <v>District</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Adenta</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>CudjoeEmma</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0558199879</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ec@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>District</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Google Playstore</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0541111111</v>
+      </c>
+      <c r="C7" t="str">
+        <v>pg@gmail.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>District</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>AgyemangBernice</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0507343604</v>
+      </c>
+      <c r="C8" t="str">
+        <v>b@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>District</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DonKoe</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0547777777</v>
+      </c>
+      <c r="C9" t="str">
+        <v>dk@gmail.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>District</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Ablekuma North</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>John1Doe1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0546666666</v>
+      </c>
+      <c r="C10" t="str">
+        <v>jd@gmail.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>District</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>EbenezerOppong</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0242260004</v>
+      </c>
+      <c r="C11" t="str">
+        <v>oe@gmail.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>National</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>Ebenezer AgyemangSakyi</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B12" t="str">
         <v>0543212322</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C12" t="str">
         <v>ebensakyi@gmail.com</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D12" t="str">
         <v>National</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/temp/users.xlsx
+++ b/public/temp/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,13 +424,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>nicework</v>
+        <v>DonKoe</v>
       </c>
       <c r="B2" t="str">
-        <v>00000000</v>
+        <v>0547777777</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>dk@gmail.com</v>
       </c>
       <c r="D2" t="str">
         <v>District</v>
@@ -439,112 +439,12 @@
         <v>Greater Accra Region</v>
       </c>
       <c r="F2" t="str">
-        <v>Ablekuma Central</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>kjnhbgfvhjinuyiho</v>
-      </c>
-      <c r="B3" t="str">
-        <v>0544534343</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>District</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Ablekuma Central</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>MAKoK</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0540123456</v>
-      </c>
-      <c r="C4" t="str">
-        <v>kokma@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>District</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Ablekuma Central</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>DrNyavi</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0244843402</v>
-      </c>
-      <c r="C5" t="str">
-        <v>nd@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>District</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Ablekuma Central</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>AgyemangBernice</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0507343604</v>
-      </c>
-      <c r="C6" t="str">
-        <v>b@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>District</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Ablekuma Central</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>John1Doe1</v>
-      </c>
-      <c r="B7" t="str">
-        <v>0546666666</v>
-      </c>
-      <c r="C7" t="str">
-        <v>jd@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>District</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Ablekuma Central</v>
+        <v>Ablekuma North</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/temp/users.xlsx
+++ b/public/temp/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,38 +413,1059 @@
         <v>Email</v>
       </c>
       <c r="D1" t="str">
-        <v>User Level</v>
+        <v>Region</v>
       </c>
       <c r="E1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="F1" t="str">
         <v>District</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>ABCABC</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0567890999</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>fsdfdsdfdfd</v>
+      </c>
+      <c r="B3" t="str">
+        <v>59303232</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Ablekuma North</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>kfskdsdfddgfd</v>
+      </c>
+      <c r="B4" t="str">
+        <v>433242323</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>mfdsmkdskmsds</v>
+      </c>
+      <c r="B5" t="str">
+        <v>43323232</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>nicework</v>
+      </c>
+      <c r="B6" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>kjnhbgfvhjinuyiho</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0544534343</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>MAKoK</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0540123456</v>
+      </c>
+      <c r="C8" t="str">
+        <v>kokma@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>IbrahimOko</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0500117345</v>
+      </c>
+      <c r="C9" t="str">
+        <v>oko@gmail.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>RebeccaAganey</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0248194256</v>
+      </c>
+      <c r="C10" t="str">
+        <v>rebeccaaganey@gmail.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>KwekuQuansah</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0208123972</v>
+      </c>
+      <c r="C11" t="str">
+        <v>kwekuquansah@gmail.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">MaryYeriwe </v>
+      </c>
+      <c r="B12" t="str">
+        <v>0246239154</v>
+      </c>
+      <c r="C12" t="str">
+        <v>yeriwe@gmail.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>GraceAnkrah</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0246732830</v>
+      </c>
+      <c r="C13" t="str">
+        <v>graceank@gmail.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Eugene EdemFiegbe</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0249565152</v>
+      </c>
+      <c r="C14" t="str">
+        <v>eugene.fiagbe@mswr.gov.gh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">EuniceArku </v>
+      </c>
+      <c r="B15" t="str">
+        <v>0548847727</v>
+      </c>
+      <c r="C15" t="str">
+        <v>eunicearku@gmail.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>GeoffreyTornyi</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0262061540</v>
+      </c>
+      <c r="C16" t="str">
+        <v>tornyi@gmail.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>VictorBuami</v>
+      </c>
+      <c r="B17" t="str">
+        <v>0542922001</v>
+      </c>
+      <c r="C17" t="str">
+        <v>buamivictor441@gmail.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>StephanieDormekpor</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0558186979</v>
+      </c>
+      <c r="C18" t="str">
+        <v>stephanieDormekpor@gmail.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>AugustineDonkor</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0547328270</v>
+      </c>
+      <c r="C19" t="str">
+        <v>augustinedonkor2020@gmail.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>SamuelKobi Mensah</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0593870476</v>
+      </c>
+      <c r="C20" t="str">
+        <v>samuelkofi32@gmail.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>EmmanuelAkwetey Siaw</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0543461854</v>
+      </c>
+      <c r="C21" t="str">
+        <v>eakweteysiaw@gmail.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Afua AgyeiwaaBoadu</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0274474793</v>
+      </c>
+      <c r="C22" t="str">
+        <v>afua-boadu@mswr.gov.gh</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>SamuelManeen</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0248168579</v>
+      </c>
+      <c r="C23" t="str">
+        <v>samuelmaneen@gmail.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>ToyibuImoro</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0244846525</v>
+      </c>
+      <c r="C24" t="str">
+        <v>gbadiroyal@gmail.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>IssahSuweiba</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0206550456</v>
+      </c>
+      <c r="C25" t="str">
+        <v>issahsuweiba833@gmail.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>MatildaQuarshie</v>
+      </c>
+      <c r="B26" t="str">
+        <v>0551300387</v>
+      </c>
+      <c r="C26" t="str">
+        <v>matildaquashie25@gmail.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>AmandaVittor-Quao</v>
+      </c>
+      <c r="B27" t="str">
+        <v>0249956410</v>
+      </c>
+      <c r="C27" t="str">
+        <v>quaoamanda20@gmail.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>M. THomasEdinam</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0547756112</v>
+      </c>
+      <c r="C28" t="str">
+        <v>edinamtm123@gmail.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Bright AnnangBaah</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0549655424</v>
+      </c>
+      <c r="C29" t="str">
+        <v>bright.baah@mswr.gov.gh</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>DeborahLaryea</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0558372274</v>
+      </c>
+      <c r="C30" t="str">
+        <v>deborah.laryea@mswr.gov.gh</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>DaxAsamoah</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0541234567</v>
+      </c>
+      <c r="C31" t="str">
+        <v>asdax@gmail.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Ablekuma West</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>UserDemo</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0540000000</v>
+      </c>
+      <c r="C32" t="str">
+        <v>demouser@gmail.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Ablekuma West</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>PontOko</v>
+      </c>
+      <c r="B33" t="str">
+        <v>05001173450</v>
+      </c>
+      <c r="C33" t="str">
+        <v>okop@gmail.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Accra Metropolitan</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve">MaryQuarcoopome </v>
+      </c>
+      <c r="B34" t="str">
+        <v>0597039791</v>
+      </c>
+      <c r="C34" t="str">
+        <v>mar@gmail.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Ga East</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>RosinaAbuura</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0244937512</v>
+      </c>
+      <c r="C35" t="str">
+        <v>ra@gmail.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Ga North</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>KorantemaAkoto</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0548217553</v>
+      </c>
+      <c r="C36" t="str">
+        <v>kor@gmail.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Ayawaso Central</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>GilbertChegewe Affah</v>
+      </c>
+      <c r="B37" t="str">
+        <v>0241368689</v>
+      </c>
+      <c r="C37" t="str">
+        <v>gch@gmail.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>EmmanuellaDonkor</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0596284731</v>
+      </c>
+      <c r="C38" t="str">
+        <v>emma@gmail.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>BoadiwaaHarriet</v>
+      </c>
+      <c r="B39" t="str">
+        <v>0554150082</v>
+      </c>
+      <c r="C39" t="str">
+        <v>boad@gmail.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>EsiAunti</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0243730840</v>
+      </c>
+      <c r="C40" t="str">
+        <v>esi@gmail.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Nana KofiKwakye</v>
+      </c>
+      <c r="B41" t="str">
+        <v>0548368172</v>
+      </c>
+      <c r="C41" t="str">
+        <v>nanakofi@gmail.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>PrinceDzramado</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0242384542</v>
+      </c>
+      <c r="C42" t="str">
+        <v>prince@gmail.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E42" t="str">
+        <v>La-Dade-Kotopon</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Felicia Afua Gaisie</v>
+      </c>
+      <c r="B43" t="str">
+        <v>0500401123</v>
+      </c>
+      <c r="C43" t="str">
+        <v>fel@gmail.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Ayawaso West</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve">RichardSrem-Sei </v>
+      </c>
+      <c r="B44" t="str">
+        <v>0244978346</v>
+      </c>
+      <c r="C44" t="str">
+        <v>ss@gmail.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Ga West</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Peter Cobbinah</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0243333655</v>
+      </c>
+      <c r="C45" t="str">
+        <v>cp@gmail.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Ledzokuku</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>AmiTsagli</v>
+      </c>
+      <c r="B46" t="str">
+        <v>0277160224</v>
+      </c>
+      <c r="C46" t="str">
+        <v>ami@gmail.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Krowor</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>BervllynTorkuebu</v>
+      </c>
+      <c r="B47" t="str">
+        <v>0208092780</v>
+      </c>
+      <c r="C47" t="str">
+        <v>bev@gmail.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Ayawaso Central</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>BelindaGyamfi</v>
+      </c>
+      <c r="B48" t="str">
+        <v>0547253973</v>
+      </c>
+      <c r="C48" t="str">
+        <v>bel@gmail.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Ablekuma West</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>EricDanquah</v>
+      </c>
+      <c r="B49" t="str">
+        <v>0272894049</v>
+      </c>
+      <c r="C49" t="str">
+        <v>de@gmail.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Ablekuma North</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Christiana Otoo</v>
+      </c>
+      <c r="B50" t="str">
+        <v>0244663829</v>
+      </c>
+      <c r="C50" t="str">
+        <v>christy@gmail.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Okaikwei North</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v xml:space="preserve">Ar-Eng WakahIsaac </v>
+      </c>
+      <c r="B51" t="str">
+        <v>0244452462</v>
+      </c>
+      <c r="C51" t="str">
+        <v>ike@gmail.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Ayawaso North</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve">Anang TettehDaniel </v>
+      </c>
+      <c r="B52" t="str">
+        <v>0248316868</v>
+      </c>
+      <c r="C52" t="str">
+        <v>da@gmail.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E52" t="str">
+        <v>La-Nkwantanang-Madina</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>BoboIta</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0243518334</v>
+      </c>
+      <c r="C53" t="str">
+        <v>ita@gmail.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Weija Gbawe</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>DavidAbbey</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0244090908</v>
+      </c>
+      <c r="C54" t="str">
+        <v>dav@gmail.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Tema Metropolitan</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>DrNyavi</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0244843402</v>
+      </c>
+      <c r="C55" t="str">
+        <v>nd@gmail.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>OpokuRichard</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0554136656</v>
+      </c>
+      <c r="C56" t="str">
+        <v>rich@gmail.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Ga North</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>EuniceDago</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0242677442</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ed@gmail.com</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Adenta</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>CudjoeEmma</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0558199879</v>
+      </c>
+      <c r="C58" t="str">
+        <v>ecc@gmail.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Korle-Klottey</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Google Playstore</v>
+      </c>
+      <c r="B59" t="str">
+        <v>0541111111</v>
+      </c>
+      <c r="C59" t="str">
+        <v>pg@gmail.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Ablekuma West</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>AgyemangBernice</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0507343604</v>
+      </c>
+      <c r="C60" t="str">
+        <v>b@gmail.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
         <v>DonKoe</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B61" t="str">
         <v>0547777777</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C61" t="str">
         <v>dk@gmail.com</v>
       </c>
-      <c r="D2" t="str">
-        <v>District</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Greater Accra Region</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="D61" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E61" t="str">
         <v>Ablekuma North</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>John1Doe1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0546666666</v>
+      </c>
+      <c r="C62" t="str">
+        <v>jd@gmail.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Greater Accra Region</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Ablekuma Central</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>EbenezerOppong</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0242260004</v>
+      </c>
+      <c r="C63" t="str">
+        <v>oe@gmail.com</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Ebenezer AgyemangSakyi</v>
+      </c>
+      <c r="B64" t="str">
+        <v>0543212322</v>
+      </c>
+      <c r="C64" t="str">
+        <v>ebensakyi@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E64"/>
   </ignoredErrors>
 </worksheet>
 </file>